--- a/grid_trading_params.xlsx
+++ b/grid_trading_params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/PycharmProjects/PythonProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB3425C-029B-244C-9F07-A4E977377397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0C0333-A57F-9647-A3E5-5D2A87B2534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12860" yWindow="760" windowWidth="16540" windowHeight="17120" xr2:uid="{42321787-3E29-A34E-9744-245EF6859AD4}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -607,7 +607,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C2" s="1">
         <v>45873</v>
@@ -639,7 +639,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C3" s="1">
         <v>45873</v>
@@ -668,7 +668,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C4" s="1">
         <v>45873</v>
@@ -697,7 +697,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C5" s="1">
         <v>45873</v>
@@ -726,7 +726,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C6" s="1">
         <v>45873</v>
@@ -755,7 +755,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C7" s="1">
         <v>45873</v>
@@ -787,7 +787,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C8" s="1">
         <v>45873</v>
@@ -816,7 +816,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C9" s="1">
         <v>45873</v>
@@ -845,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C10" s="1">
         <v>45873</v>
@@ -874,7 +874,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C11" s="1">
         <v>45873</v>
@@ -903,7 +903,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C12" s="1">
         <v>45873</v>
@@ -935,7 +935,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C13" s="1">
         <v>45873</v>
@@ -964,7 +964,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C14" s="1">
         <v>45873</v>
@@ -993,7 +993,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C15" s="1">
         <v>45873</v>
@@ -1022,7 +1022,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C16" s="1">
         <v>45873</v>
@@ -1051,7 +1051,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C17" s="1">
         <v>45873</v>
@@ -1083,7 +1083,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C18" s="1">
         <v>45873</v>
@@ -1112,7 +1112,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C19" s="1">
         <v>45873</v>
@@ -1141,7 +1141,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C20" s="1">
         <v>45873</v>
@@ -1170,7 +1170,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C21" s="1">
         <v>45873</v>
@@ -1199,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C22" s="1">
         <v>45873</v>
@@ -1228,7 +1228,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C23" s="1">
         <v>45873</v>
@@ -1260,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C24" s="1">
         <v>45873</v>
@@ -1292,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C25" s="1">
         <v>45873</v>
@@ -1321,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C26" s="1">
         <v>45873</v>
@@ -1353,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C27" s="1">
         <v>45873</v>
@@ -1382,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C28" s="1">
         <v>45873</v>
@@ -1411,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C29" s="1">
         <v>45873</v>
@@ -1440,7 +1440,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C30" s="1">
         <v>45873</v>
@@ -1469,7 +1469,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C31" s="1">
         <v>45873</v>
@@ -1501,7 +1501,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C32" s="1">
         <v>45873</v>
@@ -1533,7 +1533,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C33" s="1">
         <v>45873</v>
@@ -1562,7 +1562,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C34" s="1">
         <v>45873</v>
@@ -1591,7 +1591,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C35" s="1">
         <v>45873</v>
@@ -1623,7 +1623,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C36" s="1">
         <v>45873</v>
@@ -1655,7 +1655,7 @@
         <v>21</v>
       </c>
       <c r="B37" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C37" s="1">
         <v>45873</v>
@@ -1684,7 +1684,7 @@
         <v>21</v>
       </c>
       <c r="B38" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C38" s="1">
         <v>45873</v>
@@ -1713,7 +1713,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C39" s="1">
         <v>45873</v>
@@ -1742,7 +1742,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C40" s="1">
         <v>45873</v>
@@ -1771,7 +1771,7 @@
         <v>23</v>
       </c>
       <c r="B41" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C41" s="1">
         <v>45873</v>
@@ -1803,7 +1803,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C42" s="1">
         <v>45873</v>
@@ -1835,7 +1835,7 @@
         <v>23</v>
       </c>
       <c r="B43" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C43" s="1">
         <v>45873</v>
@@ -1864,7 +1864,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C44" s="1">
         <v>45873</v>
@@ -1896,7 +1896,7 @@
         <v>27</v>
       </c>
       <c r="B45" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C45" s="1">
         <v>45873</v>
@@ -1928,7 +1928,7 @@
         <v>27</v>
       </c>
       <c r="B46" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C46" s="1">
         <v>45873</v>
@@ -1957,7 +1957,7 @@
         <v>26</v>
       </c>
       <c r="B47" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C47" s="3">
         <v>45873</v>
@@ -1989,7 +1989,7 @@
         <v>27</v>
       </c>
       <c r="B48" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C48" s="1">
         <v>45873</v>
@@ -2018,7 +2018,7 @@
         <v>27</v>
       </c>
       <c r="B49" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C49" s="1">
         <v>45873</v>
@@ -2047,7 +2047,7 @@
         <v>27</v>
       </c>
       <c r="B50" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="C50" s="1">
         <v>45873</v>
